--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_9_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_9_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.229421046191072e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.508978586723518e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.657991530246405</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.12276153342471</v>
+        <v>51.81791299112101</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.41863429790075, 59.82688876894866]</t>
+          <t>[41.58485233331823, 62.05097364892378]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.427710775505271</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.6667108172198093]</t>
+          <t>[1.46544762419704, 1.9182898084982725]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>67.07853611083959</v>
+        <v>64.18536413143424</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[60.52189575614916, 73.63517646553002]</t>
+          <t>[57.68538788768399, 70.6853403751845]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.60836836836862</v>
+        <v>17.97597597597627</v>
       </c>
       <c r="X2" t="n">
-        <v>17.69241241241266</v>
+        <v>17.08948948948977</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.52432432432459</v>
+        <v>18.86246246246278</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,55 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.70000000000027</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.630429290524262e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.035695942695302e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9928783267168102</v>
-      </c>
+        <v>2.508978586723518e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.66361241894142</v>
+        <v>50.18057517519721</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[32.87609766737801, 58.451127170504826]</t>
+          <t>[36.17393531694384, 64.18721503345057]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.125366549421415e-11</v>
+        <v>1.854050246663519e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.125366549421415e-11</v>
+        <v>1.854050246663519e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.7107106503616549</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.01886842434588587, 0.6352369529781168]</t>
+          <t>[0.4339737599553466, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.06464206016767937</v>
+        <v>8.432999072383041e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06464206016767937</v>
+        <v>8.432999072383041e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>65.22436467691877</v>
+        <v>65.59253413924077</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.673707491252, 72.77502186258553]</t>
+          <t>[58.16686450991066, 73.01820376857088]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.53753753753779</v>
+        <v>21.16998998999025</v>
       </c>
       <c r="X3" t="n">
-        <v>21.30390390390414</v>
+        <v>20.11865865865891</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.77117117117144</v>
+        <v>22.22132132132159</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_9_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_9_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.508978586723518e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.657991530246405</v>
-      </c>
+        <v>2.544923838682307e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>51.81791299112101</v>
+        <v>45.82806052616252</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.58485233331823, 62.05097364892378]</t>
+          <t>[35.78004000409882, 55.87608104822621]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.9182898084982725]</t>
+          <t>[1.3522370781217337, 1.8553950606786564]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.18536413143424</v>
+        <v>67.01992831025571</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.68538788768399, 70.6853403751845]</t>
+          <t>[60.54074716857539, 73.49910945193602]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.97597597597627</v>
+        <v>18.1494294294297</v>
       </c>
       <c r="X2" t="n">
-        <v>17.08948948948977</v>
+        <v>17.17365365365391</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.86246246246278</v>
+        <v>19.12520520520549</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.87000000000029</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.508978586723518e-16</v>
+        <v>2.544923838682307e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.18057517519721</v>
+        <v>51.81119898778548</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.17393531694384, 64.18721503345057]</t>
+          <t>[39.90103895814314, 63.72135901742782]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.854050246663519e-11</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>1.854050246663519e-11</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7107106503616549</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 0.9874475407679633]</t>
+          <t>[1.1761317842268095, 1.6792897667837323]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>8.432999072383041e-07</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.432999072383041e-07</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>65.59253413924077</v>
+        <v>65.25063034522691</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.16686450991066, 73.01820376857088]</t>
+          <t>[57.960967011253246, 72.54029367920057]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.16998998999025</v>
+        <v>18.67791791791818</v>
       </c>
       <c r="X3" t="n">
-        <v>20.11865865865891</v>
+        <v>17.7101501501504</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.22132132132159</v>
+        <v>19.64568568568596</v>
       </c>
     </row>
   </sheetData>
